--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>002264</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>华夏乐享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.49</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004270</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富民丰回报混合A</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.69</t>
+          <t>27.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004271</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富民丰回报混合C</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38.69</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002264</t>
+          <t>004270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏乐享健康灵活配置混合</t>
+          <t>汇添富民丰回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>004271</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>汇添富民丰回报混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78.84</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>78.84</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -749,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +863,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +893,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +931,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>79.63</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -856,15 +979,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>96.44</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,26 +1007,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1045,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1053,7 +1054,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>79.63</t>
@@ -1069,6 +1069,626 @@
       </c>
       <c r="H6" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1673,7 +1674,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>78.89</t>
@@ -1689,6 +1689,1310 @@
       </c>
       <c r="H16" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7418</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6704</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4735</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2977,7 +2978,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -2993,6 +2993,106 @@
       </c>
       <c r="H34" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3006,7 +3007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3017,17 +3018,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3037,14 +3058,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.41</v>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3053,14 +3096,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.4</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4637</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3069,14 +3134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.82</v>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3085,13 +3172,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3899,7 +3900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3910,17 +3911,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3930,14 +3951,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.59</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3946,14 +3989,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.41</v>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3962,14 +4027,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.4</v>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3978,14 +4065,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.82</v>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3994,13 +4103,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4716,7 +4717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4727,17 +4728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4747,14 +4768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.2</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4763,14 +4806,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.59</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4779,14 +4844,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.41</v>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1809</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4795,14 +4882,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.4</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4811,14 +4920,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.82</v>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4827,13 +4958,1853 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>8.59</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>9.41</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>4.4</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.82</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.18</v>
       </c>
     </row>
@@ -600,6 +617,2266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3976</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +4830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3369,7 +5646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4261,7 +6538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5564,7 +7841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6183,7 +8460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6422,7 +8699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688050-爱博医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>9.58</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>8.59</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>9.41</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>4.4</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>1.82</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.18</v>
       </c>
     </row>
@@ -616,7 +633,2696 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6590</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5352</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2876,7 +5582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4830,7 +7536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5646,7 +8352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6538,7 +9244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7841,7 +10547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8460,7 +11166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8697,395 +11403,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002264</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏乐享健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7452</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7387</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4080</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富民丰回报混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1050</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0972</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004271</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富民丰回报混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>38.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>